--- a/data/case1/5/Plm1_6.xlsx
+++ b/data/case1/5/Plm1_6.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.33747622854374981</v>
+        <v>-0.33759270822881149</v>
       </c>
       <c r="B1" s="0">
-        <v>0.33652625360171839</v>
+        <v>0.33664063555249868</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.21556517316907176</v>
+        <v>-0.21579599323418819</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21326495686896685</v>
+        <v>0.21348740106867403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.097732322800187177</v>
+        <v>-0.097987817985057291</v>
       </c>
       <c r="B3" s="0">
-        <v>0.097292811213783637</v>
+        <v>0.097545120467405155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15929281073768919</v>
+        <v>-0.15954511998254262</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15848113634127969</v>
+        <v>0.1587295069602952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15248113705755451</v>
+        <v>-0.15272950767880822</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15085806228029952</v>
+        <v>0.15109817346697962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.049919181310597249</v>
+        <v>-0.050159106477420501</v>
       </c>
       <c r="B6" s="0">
-        <v>0.049885271649455998</v>
+        <v>0.050125062581367619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.029885272507032212</v>
+        <v>-0.030125063443732003</v>
       </c>
       <c r="B7" s="0">
-        <v>0.029813342927168307</v>
+        <v>0.030053533071692229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0098133437876484209</v>
+        <v>-0.010053533937075976</v>
       </c>
       <c r="B8" s="0">
-        <v>0.009719849892452892</v>
+        <v>0.0099618531331113758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0037198506363802508</v>
+        <v>-0.0039618538796553082</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0036204737034459811</v>
+        <v>0.0038646385581992959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0023795255520795422</v>
+        <v>0.002135360694616395</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0023937688890640629</v>
+        <v>-0.0021489896628139604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0068937681572478482</v>
+        <v>0.0066489889285392678</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0069372696196943195</v>
+        <v>-0.0066914203645573878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.012937268875488073</v>
+        <v>0.012691419617669286</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.013162046416371087</v>
+        <v>-0.0129116746172806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0056804629682023489</v>
+        <v>-0.0054887746499465706</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0056734193641165831</v>
+        <v>0.005482181906315553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0063265798438756349</v>
+        <v>0.0065178172980093763</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0063284421480522823</v>
+        <v>-0.0065196017810320583</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.012328441407124302</v>
+        <v>0.012519601037480399</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.012336068553789659</v>
+        <v>-0.012527287333452541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.059355269926836041</v>
+        <v>0.059279484330525989</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.059657137010686867</v>
+        <v>-0.059581194161708151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.06565713628364378</v>
+        <v>0.06558119343217772</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.065864870096818962</v>
+        <v>-0.065788871361129431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11096108115300751</v>
+        <v>-0.11084464304109787</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1108044372962631</v>
+        <v>0.11068810175644828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10180443801014949</v>
+        <v>-0.10168810247264304</v>
       </c>
       <c r="B19" s="0">
-        <v>0.10055001875260494</v>
+        <v>0.10043374205585343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.091550019491206669</v>
+        <v>-0.091433742796913187</v>
       </c>
       <c r="B20" s="0">
-        <v>0.091266236555951785</v>
+        <v>0.091149987060997972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043771303718323</v>
+        <v>-0.0090043740154821528</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999992553972952</v>
+        <v>0.0089999992528411177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.10653263479739472</v>
+        <v>-0.10649958381462099</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10608426790500758</v>
+        <v>0.10605122810081546</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.097084268640326599</v>
+        <v>-0.097051228838699544</v>
       </c>
       <c r="B23" s="0">
-        <v>0.096330568574628295</v>
+        <v>0.096297493779183618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.054330569601899192</v>
+        <v>-0.054297494814690594</v>
       </c>
       <c r="B24" s="0">
-        <v>0.054066392084306969</v>
+        <v>0.054033268850790961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094938881707708589</v>
+        <v>-0.094939067730042126</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094695272328383595</v>
+        <v>0.094695537158351328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088695273069298253</v>
+        <v>-0.088695537901735122</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088379901783294912</v>
+        <v>0.088380194732717854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082379902528241011</v>
+        <v>-0.082380195480228124</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081295266191243609</v>
+        <v>0.081295386385340507</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07529526695288169</v>
+        <v>-0.075295387149626691</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074543876922375851</v>
+        <v>0.074543884473990296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062543877746280785</v>
+        <v>-0.062543885301614921</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171992207520788</v>
+        <v>0.06217197768138405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171993104192396</v>
+        <v>-0.042171978583153358</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019358642115368</v>
+        <v>0.042019322503423329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019359504247831</v>
+        <v>-0.027019323369966486</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000580228804694</v>
+        <v>0.02700057394089761</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005811427981115</v>
+        <v>-0.0060005748603169096</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992124248891</v>
+        <v>0.0059999992094867949</v>
       </c>
     </row>
   </sheetData>
